--- a/aichan/547536183383119764_2021-07-15_12-00-02.xlsx
+++ b/aichan/547536183383119764_2021-07-15_12-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:31:55</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44396.48049768519</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:20:28</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44395.55587962963</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -681,10 +693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:56:15</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44394.95572916666</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,10 +780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:05:08</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44394.04523148148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -837,10 +845,8 @@
           <t>4921521161</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-16 15:14:03</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44393.63475694445</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -904,10 +910,8 @@
           <t>4921460060</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-16 15:03:08</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44393.62717592593</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -971,10 +975,8 @@
           <t>4921211978</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-16 14:18:53</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44393.59644675926</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1046,10 +1048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-16 06:36:35</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44393.27540509259</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1110,10 +1110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:21:33</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44392.97329861111</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1204,10 +1202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:04:06</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44392.96118055555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1271,10 +1267,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:40</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44392.80185185185</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1350,10 +1344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:05:47</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44392.79568287037</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1429,10 +1421,8 @@
           <t>4913371523</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:51:24</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44392.78569444444</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1504,10 +1494,8 @@
           <t>4913371523</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:46:24</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44392.78222222222</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1583,10 +1571,8 @@
           <t>4913371523</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:45:57</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44392.78190972222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1662,10 +1648,8 @@
           <t>4913371523</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:32:08</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44392.77231481481</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1737,10 +1721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:06:47</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44392.75471064815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1809,10 +1791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:18:15</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44392.72100694444</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1880,10 +1860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:10:39</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44392.71572916667</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
@@ -1951,10 +1929,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:37:53</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44392.69297453704</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2039,10 +2015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:11:12</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44392.67444444444</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
@@ -2106,10 +2080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:03:45</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44392.66927083334</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2181,10 +2153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:03:36</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44392.66916666667</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2256,10 +2226,8 @@
           <t>4914532473</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:02:06</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44392.668125</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2335,10 +2303,8 @@
           <t>4914524090</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:01:46</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44392.66789351852</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2414,10 +2380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:38:40</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44392.65185185185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2481,10 +2445,8 @@
           <t>4913221881</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:32:01</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44392.6472337963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2552,10 +2514,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:16:24</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44392.63638888889</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2619,10 +2579,8 @@
           <t>4914233916</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:10:48</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44392.6325</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2690,10 +2648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:10:13</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44392.63209490741</v>
       </c>
       <c r="I31" t="n">
         <v>8</v>
@@ -2769,10 +2725,8 @@
           <t>4913034813</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:08:05</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44392.63061342593</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2840,10 +2794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:00:19</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44392.62521990741</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2919,10 +2871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:55:35</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44392.62193287037</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2990,10 +2940,8 @@
           <t>4913907118</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:11:39</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44392.59142361111</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3070,10 +3018,8 @@
           <t>4913897905</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:30</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44392.590625</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3150,10 +3096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:42</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44392.58798611111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3217,10 +3161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:58</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44392.58747685186</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3284,10 +3226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:19</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44392.58702546296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3363,10 +3303,8 @@
           <t>4913837223</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:55</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.58327546297</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3434,10 +3372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:14</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.5744675926</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
@@ -3505,10 +3441,8 @@
           <t>4913730526</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:02</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.57085648148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3580,10 +3514,8 @@
           <t>4913718477</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:06</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.57020833333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3651,10 +3583,8 @@
           <t>4913725229</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:58</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.57011574074</v>
       </c>
       <c r="I44" t="n">
         <v>2</v>
@@ -3726,10 +3656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:28</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.56837962963</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3801,10 +3729,8 @@
           <t>4913683434</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:26</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.56627314815</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3872,10 +3798,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.56311342592</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3935,10 +3859,8 @@
           <t>4913028485</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:00</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.56180555555</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3998,10 +3920,8 @@
           <t>4913628232</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:41</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.56019675926</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4078,10 +3998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:23</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.55998842593</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4159,10 +4077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:05</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.55908564815</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4222,10 +4138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:39</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.55600694445</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4301,10 +4215,8 @@
           <t>4913556462</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:51</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.55267361111</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4372,10 +4284,8 @@
           <t>4913468935</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:38</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.55252314815</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4451,10 +4361,8 @@
           <t>4913542903</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.55189814815</v>
       </c>
       <c r="I55" t="n">
         <v>3</v>
@@ -4522,10 +4430,8 @@
           <t>4913546302</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:42</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.551875</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4593,10 +4499,8 @@
           <t>4913542903</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:22</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.55164351852</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4664,10 +4568,8 @@
           <t>4913509661</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:10:10</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.54872685186</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4741,10 +4643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:09:07</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.54799768519</v>
       </c>
       <c r="I59" t="n">
         <v>7</v>
@@ -4812,10 +4712,8 @@
           <t>4913468935</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:08:01</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.54723379629</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4883,10 +4781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:07:43</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.54702546296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4954,10 +4850,8 @@
           <t>4913474499</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:22</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.54539351852</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5029,10 +4923,8 @@
           <t>4913481107</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:21</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.54538194444</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5100,10 +4992,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:05:18</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.54534722222</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5171,10 +5061,8 @@
           <t>4913468935</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:28</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.54476851852</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -5250,10 +5138,8 @@
           <t>4913471232</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:04:01</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.54445601852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5329,10 +5215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:50</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.54363425926</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5408,10 +5292,8 @@
           <t>4913439148</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:43</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.54355324074</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5487,10 +5369,8 @@
           <t>4913371523</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:32</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.54342592593</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5566,10 +5446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:02:09</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.54315972222</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5633,10 +5511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:47</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.5429050926</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5700,10 +5576,8 @@
           <t>4913415024</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:38</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44392.54280092593</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5767,10 +5641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:26</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44392.54266203703</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5834,10 +5706,8 @@
           <t>4913444260</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:01:12</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44392.5425</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5905,10 +5775,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:52</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44392.54226851852</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5972,10 +5840,8 @@
           <t>4913443156</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:43</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44392.54216435185</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6043,10 +5909,8 @@
           <t>4913439148</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:41</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44392.5421412037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6114,10 +5978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:35</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44392.54207175926</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6194,10 +6056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:25</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44392.54195601852</v>
       </c>
       <c r="I79" t="n">
         <v>3</v>
@@ -6265,10 +6125,8 @@
           <t>4913413613</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:20</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44392.54189814815</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6332,10 +6190,8 @@
           <t>4913441543</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:00:03</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44392.54170138889</v>
       </c>
       <c r="I81" t="n">
         <v>2</v>
@@ -6403,10 +6259,8 @@
           <t>4913433509</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:59:46</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44392.54150462963</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6483,10 +6337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:59:15</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44392.54114583333</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6554,10 +6406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:59:10</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44392.54108796296</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6629,10 +6479,8 @@
           <t>4913429407</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:59:10</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44392.54108796296</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -6709,10 +6557,8 @@
           <t>4913406824</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:58:59</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44392.54096064815</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6776,10 +6622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:58:43</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44392.54077546296</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6843,10 +6687,8 @@
           <t>4913427970</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:58:35</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44392.54068287037</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -6914,10 +6756,8 @@
           <t>4913427943</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:58:34</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.54067129629</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6981,10 +6821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:58:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.54032407407</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7052,10 +6890,8 @@
           <t>4913028485</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:57:59</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.5402662037</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7123,10 +6959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:57:32</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.5399537037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7186,10 +7020,8 @@
           <t>4913420333</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:57:16</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.53976851852</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7257,10 +7089,8 @@
           <t>4913413613</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:50</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.53946759259</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7335,10 +7165,8 @@
           <t>4913409147</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:50</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.53946759259</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7410,10 +7238,8 @@
           <t>4913413595</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:49</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.53945601852</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7486,10 +7312,8 @@
           <t>4913415024</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:31</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.53924768518</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7553,10 +7377,8 @@
           <t>4913407929</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:22</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.53914351852</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7620,10 +7442,8 @@
           <t>4913404441</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:17</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.53908564815</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7697,10 +7517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.53900462963</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7768,10 +7586,8 @@
           <t>4913405314</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:56:07</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.53896990741</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7839,10 +7655,8 @@
           <t>4913406932</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:59</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.53887731482</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7910,10 +7724,8 @@
           <t>4913406824</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:56</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.53884259259</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7981,10 +7793,8 @@
           <t>4913402078</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:23</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.53846064815</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8044,10 +7854,8 @@
           <t>4913405371</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:23</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.53846064815</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8123,10 +7931,8 @@
           <t>4913405314</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:22</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.53844907408</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8202,10 +8008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:14</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.53835648148</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8273,10 +8077,8 @@
           <t>4913394961</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.53835648148</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8340,10 +8142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:55:13</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.53834490741</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8407,10 +8207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:54:54</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.538125</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8478,10 +8276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:54:50</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.53807870371</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8545,10 +8341,8 @@
           <t>4913389898</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:54:33</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.53788194444</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8612,10 +8406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:54:21</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.53774305555</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8679,10 +8471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:53:32</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.53717592593</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8750,10 +8540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:53:22</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.53706018518</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8821,10 +8609,8 @@
           <t>4913384226</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:53:01</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.53681712963</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8896,10 +8682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:53:00</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.53680555556</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8965,10 +8749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:52:50</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.53668981481</v>
       </c>
       <c r="I118" t="n">
         <v>3</v>
@@ -9036,10 +8818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:52:50</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.53668981481</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9107,10 +8887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:52:43</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.5366087963</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9182,10 +8960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:52:00</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.53611111111</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9253,10 +9029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:51:58</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.53608796297</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9328,10 +9102,8 @@
           <t>4913372860</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:51:52</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.53601851852</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9403,10 +9175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:51:43</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.53591435185</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9478,10 +9248,8 @@
           <t>4913371523</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:51:21</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.53565972222</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9553,10 +9321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:51:19</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.53563657407</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9624,10 +9390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:51:04</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.53546296297</v>
       </c>
       <c r="I127" t="n">
         <v>7</v>
@@ -9687,10 +9451,8 @@
           <t>4913368474</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:50:48</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.53527777778</v>
       </c>
       <c r="I128" t="n">
         <v>2</v>
@@ -9762,10 +9524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:50:24</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.535</v>
       </c>
       <c r="I129" t="n">
         <v>7</v>
@@ -9833,10 +9593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:50:05</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.5347800926</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9912,10 +9670,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:49:56</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.53467592593</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9987,10 +9743,8 @@
           <t>4913360411</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:49:30</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.534375</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10058,10 +9812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:49:21</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.53427083333</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10125,10 +9877,8 @@
           <t>4913300247</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:49:18</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.53423611111</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10197,10 +9947,8 @@
           <t>4913028485</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:49:01</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.53403935185</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10272,10 +10020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:57</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.53399305556</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10343,10 +10089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:56</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.53398148148</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10410,10 +10154,8 @@
           <t>4913352920</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:44</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.53384259259</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10482,10 +10224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:34</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.53372685185</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10549,10 +10289,8 @@
           <t>4913066594</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:27</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.53364583333</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10624,10 +10362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:16</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.53351851852</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10703,10 +10439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:48:05</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.5333912037</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10774,10 +10508,8 @@
           <t>4913346441</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:47:55</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.53327546296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10837,10 +10569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:47:54</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.53326388889</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10912,10 +10642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:47:45</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.53315972222</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -10983,10 +10711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:47:45</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.53315972222</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11058,10 +10784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:47:27</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.53295138889</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11137,10 +10861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:47:21</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.53288194445</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11212,10 +10934,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.53255787037</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11290,10 +11010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:39</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.53239583333</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11353,10 +11071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.5321875</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11424,10 +11140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:19</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.53216435185</v>
       </c>
       <c r="I152" t="n">
         <v>8</v>
@@ -11491,10 +11205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:18</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.53215277778</v>
       </c>
       <c r="I153" t="n">
         <v>5</v>
@@ -11562,10 +11274,8 @@
           <t>4913327936</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:15</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.53211805555</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11633,10 +11343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:05</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.53200231482</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11708,10 +11416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:46:02</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.53196759259</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11775,10 +11481,8 @@
           <t>4913335339</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:54</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.531875</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11854,10 +11558,8 @@
           <t>4913324513</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:36</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.53166666667</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11921,10 +11623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:22</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.53150462963</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11996,10 +11696,8 @@
           <t>4913319863</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:19</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.53146990741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12075,10 +11773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:45:15</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.53142361111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12154,10 +11850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:44:56</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.5312037037</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12221,10 +11915,8 @@
           <t>4913322136</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:44:44</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.53106481482</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12296,10 +11988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:44:35</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.53096064815</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12367,10 +12057,8 @@
           <t>4913313402</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:44:33</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.5309375</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12434,10 +12122,8 @@
           <t>4913312735</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:44:19</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.53077546296</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12513,10 +12199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:59</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.53054398148</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12592,10 +12276,8 @@
           <t>4913142565</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:59</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.53054398148</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12664,10 +12346,8 @@
           <t>4913315321</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:33</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.53024305555</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12731,10 +12411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:22</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.53011574074</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12794,10 +12472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:20</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.53009259259</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12861,10 +12537,8 @@
           <t>4913308024</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:14</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.53002314815</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12933,10 +12607,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:43:02</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.52988425926</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13012,10 +12684,8 @@
           <t>4913303833</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:58</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.52983796296</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13075,10 +12745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:56</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.52981481481</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13146,10 +12814,8 @@
           <t>4913306894</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:49</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.5297337963</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13217,10 +12883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:35</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.52957175926</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13296,10 +12960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:27</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44392.52947916667</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13371,10 +13033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:12</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44392.52930555555</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13442,10 +13102,8 @@
           <t>4913294901</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:04</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44392.52921296296</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13513,10 +13171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:42:04</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44392.52921296296</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13584,10 +13240,8 @@
           <t>4913300247</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:41:34</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44392.52886574074</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13655,10 +13309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:41:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44392.52884259259</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13722,10 +13374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:41:21</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44392.52871527777</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13789,10 +13439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:41:17</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44392.52866898148</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13860,10 +13508,8 @@
           <t>4913142565</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:40:45</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44392.52829861111</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -13932,10 +13578,8 @@
           <t>4913282344</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:40:25</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44392.52806712963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14011,10 +13655,8 @@
           <t>4913286921</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:40:18</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44392.52798611111</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14082,10 +13724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:40:16</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44392.52796296297</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14153,10 +13793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:39:49</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44392.52765046297</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14220,10 +13858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:39:47</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44392.52762731481</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14299,10 +13935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:39:39</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44392.52753472222</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14378,10 +14012,8 @@
           <t>4913274566</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:39:27</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44392.52739583333</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14457,10 +14089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:39:14</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44392.52724537037</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14524,10 +14154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:39:06</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44392.52715277778</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14595,10 +14223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:38:55</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44392.52702546296</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14674,10 +14300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:38:53</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44392.52700231481</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14741,10 +14365,8 @@
           <t>4913272821</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:38:47</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44392.52693287037</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14808,10 +14430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:37:59</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44392.52637731482</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14879,10 +14499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:37:58</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44392.52636574074</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14946,10 +14564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:37:52</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44392.5262962963</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15017,10 +14633,8 @@
           <t>4913249536</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:22</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44392.52525462963</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15084,10 +14698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:18</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44392.52520833333</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15166,10 +14778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:05</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44392.52505787037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15245,10 +14855,8 @@
           <t>4913221881</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:36:00</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44392.525</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15312,10 +14920,8 @@
           <t>4913244581</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:35:40</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44392.52476851852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15387,10 +14993,8 @@
           <t>4913246664</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:35:18</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44392.52451388889</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15466,10 +15070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:35:12</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44392.52444444445</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15533,10 +15135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:35:06</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44392.524375</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15600,10 +15200,8 @@
           <t>4913234504</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:34:31</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44392.52396990741</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15679,10 +15277,8 @@
           <t>4913235696</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:34:00</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44392.52361111111</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15759,10 +15355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:33:51</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44392.52350694445</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15827,10 +15421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:33:46</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44392.52344907408</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -15894,10 +15486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:33:13</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44392.52306712963</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -15973,10 +15563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:38</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44392.52266203704</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16052,10 +15640,8 @@
           <t>4913221881</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:31</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44392.52258101852</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16131,10 +15717,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:29</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44392.52255787037</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16198,10 +15782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:26</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44392.52252314815</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16269,10 +15851,8 @@
           <t>4913225739</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:22</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44392.52247685185</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16340,10 +15920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:16</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44392.52240740741</v>
       </c>
       <c r="I220" t="n">
         <v>3</v>
@@ -16415,10 +15993,8 @@
           <t>4913129542</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:11</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44392.52234953704</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16482,10 +16058,8 @@
           <t>4913225125</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:08</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44392.52231481481</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16553,10 +16127,8 @@
           <t>4913220885</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:06</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44392.52229166667</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16628,10 +16200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:32:00</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44392.52222222222</v>
       </c>
       <c r="I224" t="n">
         <v>6</v>
@@ -16707,10 +16277,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:55</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44392.52216435185</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16778,10 +16346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:51</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44392.52211805555</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16849,10 +16415,8 @@
           <t>4913220235</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:51</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44392.52211805555</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16916,10 +16480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:37</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44392.52195601852</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -16991,10 +16553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:26</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44392.52182870371</v>
       </c>
       <c r="I229" t="n">
         <v>19</v>
@@ -17058,10 +16618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:17</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44392.52172453704</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17121,10 +16679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:15</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44392.52170138889</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17200,10 +16756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:31:05</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44392.52158564814</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17279,10 +16833,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:30:49</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44392.52140046296</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17350,10 +16902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:30:39</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44392.52128472222</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17421,10 +16971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:30:02</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44392.52085648148</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17496,10 +17044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:30:01</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44392.52084490741</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17563,10 +17109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:29:59</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44392.52082175926</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17642,10 +17186,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:29:39</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44392.52059027777</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17717,10 +17259,8 @@
           <t>4913168857</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:29:28</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44392.52046296297</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17784,10 +17324,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:28:47</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44392.51998842593</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17855,10 +17393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:28:34</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44392.51983796297</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17930,10 +17466,8 @@
           <t>4913188662</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:28:22</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44392.51969907407</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18009,10 +17543,8 @@
           <t>4913195520</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:28:22</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44392.51969907407</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18084,10 +17616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:27:54</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44392.519375</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18163,10 +17693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:27:50</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44392.5193287037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18230,10 +17758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:27:22</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44392.51900462963</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18305,10 +17831,8 @@
           <t>4913178656</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:27:08</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44392.5188425926</v>
       </c>
       <c r="I247" t="n">
         <v>2</v>
@@ -18384,10 +17908,8 @@
           <t>4913182250</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:27:06</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44392.51881944444</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18463,10 +17985,8 @@
           <t>4913177234</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:26:35</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44392.51846064815</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18534,10 +18054,8 @@
           <t>4913180685</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:26:30</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44392.51840277778</v>
       </c>
       <c r="I250" t="n">
         <v>1</v>
@@ -18601,10 +18119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:26:23</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44392.51832175926</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18672,10 +18188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:26:18</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44392.51826388889</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18751,10 +18265,8 @@
           <t>4913172794</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:26:03</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44392.51809027778</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18818,10 +18330,8 @@
           <t>4913172507</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:57</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44392.51802083333</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18897,10 +18407,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:51</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44392.51795138889</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18976,10 +18484,8 @@
           <t>4913168857</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:45</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44392.51788194444</v>
       </c>
       <c r="I256" t="n">
         <v>2</v>
@@ -19043,10 +18549,8 @@
           <t>4913077206</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:34</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44392.51775462963</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19114,10 +18618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:21</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44392.51760416666</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19193,10 +18695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:25:21</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44392.51760416666</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19260,10 +18760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:24:49</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44392.51723379629</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19335,10 +18833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:24:48</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44392.51722222222</v>
       </c>
       <c r="I261" t="n">
         <v>6</v>
@@ -19407,10 +18903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:24:17</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44392.51686342592</v>
       </c>
       <c r="I262" t="n">
         <v>8</v>
@@ -19474,10 +18968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:24:17</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44392.51686342592</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19549,10 +19041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:24:13</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44392.51681712963</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19624,10 +19114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:23:51</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44392.5165625</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19703,10 +19191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:23:47</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44392.5165162037</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19782,10 +19268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:23:35</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44392.51637731482</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19857,10 +19341,8 @@
           <t>4913150954</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:22:41</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44392.51575231482</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19928,10 +19410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:22:28</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44392.51560185185</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19999,10 +19479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:22:21</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44392.51552083333</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20070,10 +19548,8 @@
           <t>4913142565</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:21:59</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44392.51526620371</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20141,10 +19617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:21:06</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44392.51465277778</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20208,10 +19682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:21:03</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44392.51461805555</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20275,10 +19747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:21:02</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44392.51460648148</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20346,10 +19816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:52</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44392.51449074074</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20425,10 +19893,8 @@
           <t>4913129542</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:47</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44392.51443287037</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20500,10 +19966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:32</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44392.51425925926</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20567,10 +20031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:23</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44392.51415509259</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20642,10 +20104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:12</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44392.51402777778</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20709,10 +20169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:08</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44392.51398148148</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20776,10 +20234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:20:00</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44392.51388888889</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20843,10 +20299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:19:44</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44392.51370370371</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20922,10 +20376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:19:19</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44392.51341435185</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20993,10 +20445,8 @@
           <t>4913118953</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:19:05</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44392.51325231481</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21064,10 +20514,8 @@
           <t>4913121906</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:19:05</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44392.51325231481</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21131,10 +20579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:18:59</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44392.51318287037</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21202,10 +20648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:18:53</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44392.51311342593</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21284,10 +20728,8 @@
           <t>4913102662</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:18:44</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44392.51300925926</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21351,10 +20793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:18:23</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44392.5127662037</v>
       </c>
       <c r="I289" t="n">
         <v>218</v>
@@ -21419,10 +20859,8 @@
           <t>4913113400</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:18:19</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44392.5127199074</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21486,10 +20924,8 @@
           <t>4913116498</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:18:05</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44392.51255787037</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21553,10 +20989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:17:34</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44392.51219907407</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21624,10 +21058,8 @@
           <t>4913110588</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:17:12</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44392.51194444444</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21703,10 +21135,8 @@
           <t>4913104088</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:17:08</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44392.51189814815</v>
       </c>
       <c r="I294" t="n">
         <v>3</v>
@@ -21774,10 +21204,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:16:52</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44392.51171296297</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21853,10 +21281,8 @@
           <t>4913099401</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:16:44</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44392.51162037037</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21932,10 +21358,8 @@
           <t>4913102662</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:16:31</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44392.5114699074</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -21999,10 +21423,8 @@
           <t>4913101423</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:16:01</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44392.51112268519</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22070,10 +21492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:15:50</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44392.51099537037</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22149,10 +21569,8 @@
           <t>4913066594</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:15:50</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44392.51099537037</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22228,10 +21646,8 @@
           <t>4913093446</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:15:42</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44392.51090277778</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22309,10 +21725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:15:16</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44392.51060185185</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22376,10 +21790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:15:08</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44392.51050925926</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22447,10 +21859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:15:04</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44392.51046296296</v>
       </c>
       <c r="I304" t="n">
         <v>3</v>
@@ -22526,10 +21936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:56</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44392.51037037037</v>
       </c>
       <c r="I305" t="n">
         <v>8</v>
@@ -22597,10 +22005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:53</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44392.51033564815</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22668,10 +22074,8 @@
           <t>4913087796</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:31</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44392.51008101852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22743,10 +22147,8 @@
           <t>4913077206</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:29</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44392.51005787037</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22810,10 +22212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:28</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44392.51004629629</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22877,10 +22277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:10</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44392.50983796296</v>
       </c>
       <c r="I310" t="n">
         <v>1</v>
@@ -22948,10 +22346,8 @@
           <t>4913086869</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:14:09</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44392.50982638889</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23019,10 +22415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:46</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44392.50956018519</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23090,10 +22484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:44</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44392.50953703704</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23169,10 +22561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:40</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44392.50949074074</v>
       </c>
       <c r="I314" t="n">
         <v>1</v>
@@ -23240,10 +22630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:33</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44392.50940972222</v>
       </c>
       <c r="I315" t="n">
         <v>51</v>
@@ -23312,10 +22700,8 @@
           <t>4913081426</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:31</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44392.50938657407</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23383,10 +22769,8 @@
           <t>4913077206</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:16</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44392.50921296296</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23454,10 +22838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:12</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44392.50916666666</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23517,10 +22899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:09</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44392.50913194445</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23589,10 +22969,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:04</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44392.50907407407</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23656,10 +23034,8 @@
           <t>4913080196</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:13:00</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44392.50902777778</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23727,10 +23103,8 @@
           <t>4913075860</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:12:44</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44392.50884259259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23806,10 +23180,8 @@
           <t>4913075616</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:12:38</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44392.50877314815</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23877,10 +23249,8 @@
           <t>4913068422</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:12:19</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44392.50855324074</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23948,10 +23318,8 @@
           <t>4913071638</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:58</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44392.50831018519</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24011,10 +23379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:51</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44392.50822916667</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24074,10 +23440,8 @@
           <t>4913063515</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:48</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44392.50819444445</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24141,10 +23505,8 @@
           <t>4913066594</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:34</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44392.50803240741</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24220,10 +23582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:30</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44392.50798611111</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24287,10 +23647,8 @@
           <t>4913062505</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:25</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44392.50792824074</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24358,10 +23716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:11:00</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44392.50763888889</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24425,10 +23781,8 @@
           <t>4913065085</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:58</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44392.50761574074</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24488,10 +23842,8 @@
           <t>4913059147</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:56</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44392.50759259259</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24555,10 +23907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:49</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44392.50751157408</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24627,10 +23977,8 @@
           <t>4913053520</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:20</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44392.50717592592</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24694,10 +24042,8 @@
           <t>4913049769</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:10:19</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44392.50716435185</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24765,10 +24111,8 @@
           <t>4913036264</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:49</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44392.50681712963</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -24828,10 +24172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:35</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44392.50665509259</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24895,10 +24237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:32</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44392.50662037037</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -24966,10 +24306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:18</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44392.50645833334</v>
       </c>
       <c r="I340" t="n">
         <v>4</v>
@@ -25037,10 +24375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:17</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44392.50644675926</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25109,10 +24445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:13</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44392.50640046296</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25180,10 +24514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:04</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44392.5062962963</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25243,10 +24575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:04</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44392.5062962963</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25314,10 +24644,8 @@
           <t>4913044485</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:01</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44392.50626157408</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25385,10 +24713,8 @@
           <t>4913044432</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:09:00</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44392.50625</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25452,10 +24778,8 @@
           <t>4913028485</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:56</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44392.50620370371</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25523,10 +24847,8 @@
           <t>4913043951</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:47</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44392.50609953704</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25590,10 +24912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:46</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44392.50608796296</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -25669,10 +24989,8 @@
           <t>4913043817</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:43</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44392.50605324074</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25748,10 +25066,8 @@
           <t>4913043559</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:37</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44392.5059837963</v>
       </c>
       <c r="I351" t="n">
         <v>6</v>
@@ -25819,10 +25135,8 @@
           <t>4913039225</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:37</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44392.5059837963</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25886,10 +25200,8 @@
           <t>4913043592</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:37</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44392.5059837963</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -25957,10 +25269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:36</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44392.50597222222</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26024,10 +25334,8 @@
           <t>4913034813</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:20</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44392.50578703704</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26099,10 +25407,8 @@
           <t>4913034626</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:16</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44392.50574074074</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26178,10 +25484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:12</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44392.50569444444</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26249,10 +25553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:12</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44392.50569444444</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26328,10 +25630,8 @@
           <t>4913038189</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:11</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44392.50568287037</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26399,10 +25699,8 @@
           <t>4913034312</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:08</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44392.50564814815</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26474,10 +25772,8 @@
           <t>4913023706</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:08</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44392.50564814815</v>
       </c>
       <c r="I361" t="n">
         <v>2</v>
@@ -26553,10 +25849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:08:07</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44392.50563657407</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26632,10 +25926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:50</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44392.50543981481</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26703,10 +25995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:37</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44392.50528935185</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26782,10 +26072,8 @@
           <t>4913036574</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:33</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44392.50524305556</v>
       </c>
       <c r="I365" t="n">
         <v>3</v>
@@ -26861,10 +26149,8 @@
           <t>4913036264</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:26</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44392.50516203704</v>
       </c>
       <c r="I366" t="n">
         <v>2</v>
@@ -26940,10 +26226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:25</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44392.50515046297</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27011,10 +26295,8 @@
           <t>4913032215</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:18</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44392.50506944444</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27090,10 +26372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:11</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44392.50498842593</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27165,10 +26445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:03</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44392.50489583334</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27236,10 +26514,8 @@
           <t>4913035146</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:07:00</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44392.50486111111</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27315,10 +26591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:55</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44392.50480324074</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27382,10 +26656,8 @@
           <t>4913024944</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:55</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44392.50480324074</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27457,10 +26729,8 @@
           <t>4913024783</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:51</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44392.50475694444</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27536,10 +26806,8 @@
           <t>4913030713</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:42</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44392.50465277778</v>
       </c>
       <c r="I375" t="n">
         <v>9</v>
@@ -27615,10 +26883,8 @@
           <t>4913030509</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:37</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44392.5045949074</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27682,10 +26948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:34</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44392.50456018518</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27757,10 +27021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:34</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44392.50456018518</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -27828,10 +27090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:32</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44392.50453703704</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27899,10 +27159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:30</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44392.50451388889</v>
       </c>
       <c r="I380" t="n">
         <v>163</v>
@@ -27978,10 +27236,8 @@
           <t>4913028485</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:30</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44392.50451388889</v>
       </c>
       <c r="I381" t="n">
         <v>1</v>
@@ -28041,10 +27297,8 @@
           <t>4913023706</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:25</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44392.50445601852</v>
       </c>
       <c r="I382" t="n">
         <v>30</v>
@@ -28120,10 +27374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:20</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44392.50439814815</v>
       </c>
       <c r="I383" t="n">
         <v>2</v>
@@ -28191,10 +27443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:14</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44392.5043287037</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28258,10 +27508,8 @@
           <t>4913023133</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:11</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44392.50429398148</v>
       </c>
       <c r="I385" t="n">
         <v>12</v>
@@ -28341,10 +27589,8 @@
           <t>4913023154</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:11</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44392.50429398148</v>
       </c>
       <c r="I386" t="n">
         <v>22</v>
@@ -28408,10 +27654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:04</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44392.50421296297</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28479,10 +27723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:06:01</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44392.50417824074</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28558,10 +27800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:49</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44392.50403935185</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28629,10 +27869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:49</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44392.50403935185</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28706,10 +27944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:47</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44392.5040162037</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28785,10 +28021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:43</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44392.5039699074</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28856,10 +28090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:31</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44392.50383101852</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28931,10 +28163,8 @@
           <t>4913026132</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:31</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44392.50383101852</v>
       </c>
       <c r="I394" t="n">
         <v>44</v>
@@ -29006,10 +28236,8 @@
           <t>4913021369</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:27</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44392.50378472222</v>
       </c>
       <c r="I395" t="n">
         <v>4</v>
@@ -29077,10 +28305,8 @@
           <t>4913025583</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:16</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44392.5036574074</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29156,10 +28382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:12</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44392.50361111111</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29231,10 +28455,8 @@
           <t>4913025353</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:11</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44392.50359953703</v>
       </c>
       <c r="I398" t="n">
         <v>4</v>
@@ -29306,10 +28528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:05:00</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44392.50347222222</v>
       </c>
       <c r="I399" t="n">
         <v>14</v>
@@ -29377,10 +28597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:04:51</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44392.50336805556</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29444,10 +28662,8 @@
           <t>4913009862</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:04:50</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44392.50335648148</v>
       </c>
       <c r="I401" t="n">
         <v>4</v>
@@ -29511,10 +28727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:04:48</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44392.50333333333</v>
       </c>
       <c r="I402" t="n">
         <v>1</v>
@@ -29586,10 +28800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:04:36</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44392.50319444444</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -29661,10 +28873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:04:23</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44392.50304398148</v>
       </c>
       <c r="I404" t="n">
         <v>11</v>
@@ -29732,10 +28942,8 @@
           <t>4913008192</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:04:08</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44392.50287037037</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -29811,10 +29019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:04:05</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44392.50283564815</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -29886,10 +29092,8 @@
           <t>4913007435</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:48</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44392.50263888889</v>
       </c>
       <c r="I407" t="n">
         <v>37</v>
@@ -29965,10 +29169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:42</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44392.50256944444</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30032,10 +29234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:38</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44392.50252314815</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30099,10 +29299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:31</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44392.50244212963</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30166,10 +29364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:24</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44392.50236111111</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30245,10 +29441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:19</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44392.50230324074</v>
       </c>
       <c r="I412" t="n">
         <v>1</v>
@@ -30324,10 +29518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:11</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44392.50221064815</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30400,10 +29592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:03:07</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44392.50216435185</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30467,10 +29657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:59</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44392.50207175926</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30534,10 +29722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:53</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44392.50200231482</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30606,10 +29792,8 @@
           <t>4912994026</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:42</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44392.501875</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30685,10 +29869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:38</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44392.5018287037</v>
       </c>
       <c r="I418" t="n">
         <v>2</v>
@@ -30756,10 +29938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:25</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44392.50167824074</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30823,10 +30003,8 @@
           <t>4912994026</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:25</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44392.50167824074</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30902,10 +30080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:22</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44392.50164351852</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30977,10 +30153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:22</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44392.50164351852</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31048,10 +30222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:16</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44392.50157407407</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31127,10 +30299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:09</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44392.50149305556</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31190,10 +30360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:07</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44392.50146990741</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31265,10 +30433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:06</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44392.50145833333</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31340,10 +30506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:02:04</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44392.50143518519</v>
       </c>
       <c r="I427" t="n">
         <v>133</v>
@@ -31411,10 +30575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:58</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44392.50136574074</v>
       </c>
       <c r="I428" t="n">
         <v>72</v>
@@ -31482,10 +30644,8 @@
           <t>4912992740</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:55</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44392.50133101852</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31562,10 +30722,8 @@
           <t>4912997635</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:53</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44392.50130787037</v>
       </c>
       <c r="I430" t="n">
         <v>8</v>
@@ -31629,10 +30787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:49</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44392.50126157407</v>
       </c>
       <c r="I431" t="n">
         <v>9</v>
@@ -31708,10 +30864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:49</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44392.50126157407</v>
       </c>
       <c r="I432" t="n">
         <v>2</v>
@@ -31779,10 +30933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:44</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44392.5012037037</v>
       </c>
       <c r="I433" t="n">
         <v>2</v>
@@ -31858,10 +31010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:41</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44392.50116898148</v>
       </c>
       <c r="I434" t="n">
         <v>3</v>
@@ -31933,10 +31083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:39</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44392.50114583333</v>
       </c>
       <c r="I435" t="n">
         <v>6</v>
@@ -32004,10 +31152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:34</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44392.50108796296</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32067,10 +31213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:31</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44392.50105324074</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32138,10 +31282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:29</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44392.50103009259</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32205,10 +31347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:23</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44392.50096064815</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32280,10 +31420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:21</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44392.5009375</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32359,10 +31497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:19</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44392.50091435185</v>
       </c>
       <c r="I441" t="n">
         <v>322</v>
@@ -32438,10 +31574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:19</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44392.50091435185</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32513,10 +31647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:18</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44392.50090277778</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32584,10 +31716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:12</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44392.50083333333</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32651,10 +31781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:12</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44392.50083333333</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32730,10 +31858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:12</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44392.50083333333</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32805,10 +31931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:11</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44392.50082175926</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32873,10 +31997,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:09</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44392.50079861111</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -32936,10 +32058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:09</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44392.50079861111</v>
       </c>
       <c r="I449" t="n">
         <v>3</v>
@@ -33016,10 +32136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:06</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44392.50076388889</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33087,10 +32205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:04</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44392.50074074074</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33158,10 +32274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:01:01</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44392.50070601852</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33237,10 +32351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:58</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44392.50067129629</v>
       </c>
       <c r="I453" t="n">
         <v>1</v>
@@ -33304,10 +32416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:55</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44392.50063657408</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33379,10 +32489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:52</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44392.50060185185</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33446,10 +32554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:51</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44392.50059027778</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33513,10 +32619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:47</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44392.50054398148</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33580,10 +32684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:46</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44392.50053240741</v>
       </c>
       <c r="I458" t="n">
         <v>10</v>
@@ -33647,10 +32749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:43</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44392.50049768519</v>
       </c>
       <c r="I459" t="n">
         <v>35</v>
@@ -33710,10 +32810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:42</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44392.50048611111</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33785,10 +32883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:38</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44392.50043981482</v>
       </c>
       <c r="I461" t="n">
         <v>1</v>
@@ -33852,10 +32948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:35</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44392.50040509259</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33923,10 +33017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:35</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44392.50040509259</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33994,10 +33086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:34</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44392.50039351852</v>
       </c>
       <c r="I464" t="n">
         <v>26</v>
@@ -34073,10 +33163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:33</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44392.50038194445</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34146,10 +33234,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:31</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44392.50035879629</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34221,10 +33307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:25</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44392.50028935185</v>
       </c>
       <c r="I467" t="n">
         <v>3</v>
@@ -34292,10 +33376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:25</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44392.50028935185</v>
       </c>
       <c r="I468" t="n">
         <v>879</v>
@@ -34359,10 +33441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:21</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44392.50024305555</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34438,10 +33518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:20</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44392.50023148148</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34509,10 +33587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:20</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44392.50023148148</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34588,10 +33664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:19</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44392.50021990741</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34659,10 +33733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-15 12:00:14</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44392.50016203704</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
